--- a/myapp/files/80_distances/distances_corrected.xlsx
+++ b/myapp/files/80_distances/distances_corrected.xlsx
@@ -555,7 +555,7 @@
         <v>13</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3969</v>
+        <v>0.3972</v>
       </c>
     </row>
     <row r="11">
@@ -572,7 +572,7 @@
         <v>13</v>
       </c>
       <c r="E11" t="n">
-        <v>0.335</v>
+        <v>0.3348</v>
       </c>
     </row>
     <row r="12">
@@ -725,7 +725,7 @@
         <v>13</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0212</v>
+        <v>0.0214</v>
       </c>
     </row>
     <row r="21">
@@ -742,7 +742,7 @@
         <v>13</v>
       </c>
       <c r="E21" t="n">
-        <v>0.011</v>
+        <v>0.0109</v>
       </c>
     </row>
     <row r="22">
@@ -861,7 +861,7 @@
         <v>13</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0746</v>
+        <v>0.0744</v>
       </c>
     </row>
     <row r="29">
@@ -878,7 +878,7 @@
         <v>13</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0439</v>
+        <v>0.0437</v>
       </c>
     </row>
     <row r="30">
@@ -963,7 +963,7 @@
         <v>13</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1826</v>
+        <v>0.1829</v>
       </c>
     </row>
     <row r="35">
@@ -980,7 +980,7 @@
         <v>13</v>
       </c>
       <c r="E35" t="n">
-        <v>0.2065</v>
+        <v>0.2063</v>
       </c>
     </row>
     <row r="36">
@@ -1031,7 +1031,7 @@
         <v>13</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1901</v>
+        <v>0.1904</v>
       </c>
     </row>
     <row r="39">
@@ -1048,7 +1048,7 @@
         <v>13</v>
       </c>
       <c r="E39" t="n">
-        <v>0.1696</v>
+        <v>0.1698</v>
       </c>
     </row>
     <row r="40">
@@ -1099,7 +1099,7 @@
         <v>14</v>
       </c>
       <c r="E42" t="n">
-        <v>0.5157</v>
+        <v>0.5161</v>
       </c>
     </row>
     <row r="43">
@@ -1116,7 +1116,7 @@
         <v>14</v>
       </c>
       <c r="E43" t="n">
-        <v>0.5036</v>
+        <v>0.5035</v>
       </c>
     </row>
   </sheetData>
